--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-reference-with-sequence.xlsx
+++ b/StructureDefinition-reference-with-sequence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/reference-with-sequence</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/reference-with-sequence</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -250,10 +250,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
   <si>
@@ -319,7 +315,7 @@
     <t>referenceSequence</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/reference-sequence}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/reference-sequence}
 </t>
   </si>
   <si>
@@ -959,15 +955,15 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -978,25 +974,25 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1047,13 +1043,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1062,16 +1058,16 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1090,16 +1086,16 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1137,19 +1133,19 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
@@ -1161,18 +1157,18 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>71</v>
@@ -1182,7 +1178,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1194,13 +1190,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1251,7 +1247,7 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
@@ -1263,7 +1259,7 @@
         <v>71</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>71</v>
@@ -1271,7 +1267,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1282,28 +1278,28 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="J6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1353,27 +1349,27 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AI6" t="s" s="2">
+      <c r="AJ6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1384,7 +1380,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1393,19 +1389,19 @@
         <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1431,14 +1427,14 @@
         <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="X7" t="s" s="2">
+      <c r="Y7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y7" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="Z7" t="s" s="2">
         <v>71</v>
       </c>
@@ -1455,27 +1451,27 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1486,7 +1482,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1495,19 +1491,19 @@
         <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1557,27 +1553,27 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1588,28 +1584,28 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1659,22 +1655,22 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
